--- a/Tarea4.xlsx
+++ b/Tarea4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodos\Documents\ITESO\7MO sEMESTRE\Finanzas Cuantitativas\Finanzas_Cuantitativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B691598A-5DF0-47CA-A114-609D8F94B415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2471FB06-2EAB-4F3A-9A02-DC89BF9BAE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{300AAA76-09AD-488E-A46C-E66E76E4AA6C}"/>
+    <workbookView xWindow="-23595" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{300AAA76-09AD-488E-A46C-E66E76E4AA6C}"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -301,14 +301,14 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -367,7 +367,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -724,7 +724,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +749,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>718272</v>
+      </c>
+      <c r="C3">
+        <v>714552</v>
+      </c>
+      <c r="D3">
+        <v>715214</v>
+      </c>
+      <c r="E3">
+        <v>718415</v>
+      </c>
+    </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
@@ -783,7 +797,7 @@
         <v>0.8</v>
       </c>
       <c r="F7">
-        <f>+(C7-$D$17)^2</f>
+        <f t="shared" ref="F7:F15" si="0">+(C7-$D$17)^2</f>
         <v>100</v>
       </c>
       <c r="G7" s="1">
@@ -799,15 +813,15 @@
         <v>0.06</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E15" si="0">+D8*C8</f>
+        <f t="shared" ref="E8:E15" si="1">+D8*C8</f>
         <v>1.05</v>
       </c>
       <c r="F8">
-        <f>+(C8-$D$17)^2</f>
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G15" si="1">+F8*D8</f>
+        <f t="shared" ref="G8:G15" si="2">+F8*D8</f>
         <v>3.375</v>
       </c>
     </row>
@@ -819,15 +833,15 @@
         <v>0.12</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="F9">
-        <f>+(C9-$D$17)^2</f>
         <v>25</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -839,15 +853,15 @@
         <v>0.18</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="F10">
-        <f>+(C10-$D$17)^2</f>
         <v>6.25</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
     </row>
@@ -859,15 +873,15 @@
         <v>0.2</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <f>+(C11-$D$17)^2</f>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -879,15 +893,15 @@
         <v>0.18</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="F12">
-        <f>+(C12-$D$17)^2</f>
         <v>6.25</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
     </row>
@@ -899,15 +913,15 @@
         <v>0.12</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F13">
-        <f>+(C13-$D$17)^2</f>
         <v>25</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -919,15 +933,15 @@
         <v>0.06</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F14">
-        <f>+(C14-$D$17)^2</f>
         <v>56.25</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.375</v>
       </c>
     </row>
@@ -939,15 +953,15 @@
         <v>0.04</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>+(C15-$D$17)^2</f>
         <v>100</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
